--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3021973.872728611</v>
+        <v>3021139.550313224</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613646</v>
+        <v>5736895.963613641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1082436.163176907</v>
+        <v>1130750.97799007</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6326856.953032024</v>
+        <v>6319435.96789923</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.8437471439545</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
@@ -670,13 +670,13 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>150.0702368744258</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>44.74588807992508</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>61.70962914344268</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>385.2967624026792</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.5647692639505</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>98.80600900533744</v>
       </c>
       <c r="V7" t="n">
-        <v>266.2723283900668</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>230.5550127962605</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>55.54290114313302</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>2.129193841209227</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>35.04819427292861</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>386.4935195611758</v>
+        <v>388.6819640774814</v>
       </c>
       <c r="C11" t="n">
-        <v>386.3978964731938</v>
+        <v>388.5863409894994</v>
       </c>
       <c r="D11" t="n">
-        <v>380.7938423012013</v>
+        <v>382.9822868175069</v>
       </c>
       <c r="E11" t="n">
-        <v>390.5713650216035</v>
+        <v>392.7598095379091</v>
       </c>
       <c r="F11" t="n">
-        <v>249.0922583241424</v>
+        <v>399.3831041354862</v>
       </c>
       <c r="G11" t="n">
-        <v>385.0155529594273</v>
+        <v>387.203997475733</v>
       </c>
       <c r="H11" t="n">
-        <v>288.1739640918904</v>
+        <v>290.3624086081961</v>
       </c>
       <c r="I11" t="n">
-        <v>65.8627967494288</v>
+        <v>68.05124126573445</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>114.3028161471714</v>
+        <v>116.491260663477</v>
       </c>
       <c r="T11" t="n">
-        <v>200.358970905941</v>
+        <v>202.5474154222466</v>
       </c>
       <c r="U11" t="n">
-        <v>234.8644385164162</v>
+        <v>237.0528830327219</v>
       </c>
       <c r="V11" t="n">
-        <v>326.7137308102153</v>
+        <v>328.902175326521</v>
       </c>
       <c r="W11" t="n">
-        <v>360.2972495495143</v>
+        <v>181.5566250261969</v>
       </c>
       <c r="X11" t="n">
-        <v>377.0115155460682</v>
+        <v>379.1999600623739</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.301858014722</v>
+        <v>379.4903025310277</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.1972610234352</v>
+        <v>168.3857055397408</v>
       </c>
       <c r="C13" t="n">
-        <v>149.7569904072319</v>
+        <v>151.9454349235375</v>
       </c>
       <c r="D13" t="n">
-        <v>138.2742499236503</v>
+        <v>140.462694439956</v>
       </c>
       <c r="E13" t="n">
-        <v>139.6762586736949</v>
+        <v>55.7870059773113</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>128.4859323359291</v>
+        <v>130.6743768522348</v>
       </c>
       <c r="I13" t="n">
-        <v>95.55713713004833</v>
+        <v>97.74558164635398</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>164.9024021322201</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>176.9589322686099</v>
+        <v>219.7162478427018</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>262.533162188974</v>
       </c>
       <c r="V13" t="n">
-        <v>251.5214393032045</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>256.6535195395456</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>218.5234197285503</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>205.0513378347598</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>386.4935195611758</v>
+        <v>376.6200261415074</v>
       </c>
       <c r="C14" t="n">
-        <v>386.3978964731938</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>380.7938423012013</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>390.5713650216035</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>397.1946596191806</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>385.0155529594274</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>140.0715627968514</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>65.86279674942884</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.3028161471714</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>200.358970905941</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>234.8644385164163</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
-        <v>326.7137308102154</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>360.2972495495144</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>377.0115155460683</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.3018580147221</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>45.80325699557422</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>138.2742499236504</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>139.676258673695</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>122.5379758612828</v>
       </c>
       <c r="H16" t="n">
-        <v>128.4859323359292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>64.79454283468561</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S16" t="n">
-        <v>164.9024021322201</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>217.5278033263962</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
-        <v>260.3447176726684</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>251.5214393032045</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>256.6535195395456</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>386.4935195611758</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C17" t="n">
-        <v>386.3978964731938</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>380.7938423012013</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>390.5713650216035</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>397.1946596191806</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
-        <v>385.0155529594274</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>288.1739640918905</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>65.86279674942884</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>114.3028161471714</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>200.358970905941</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>234.8644385164163</v>
+        <v>224.9909450967475</v>
       </c>
       <c r="V17" t="n">
-        <v>178.6113295151767</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W17" t="n">
-        <v>360.2972495495144</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>377.0115155460683</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.3018580147221</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.04182939814979</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>64.79454283468561</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S19" t="n">
-        <v>164.9024021322201</v>
+        <v>6.692817142181861</v>
       </c>
       <c r="T19" t="n">
-        <v>217.5278033263962</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
-        <v>260.3447176726684</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>251.5214393032045</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>256.6535195395456</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>216.3349752122447</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.8628933184542</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815327</v>
       </c>
       <c r="E20" t="n">
         <v>380.6978716019343</v>
@@ -2101,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>33.12209635668106</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>55.95999105627006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
@@ -2307,7 +2307,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975958</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>33.12209635668106</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>102.7913538754232</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
@@ -2541,10 +2541,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D26" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975962</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275013</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U26" t="n">
-        <v>224.9909450967471</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V26" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W26" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>112.7490016176429</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.9210494150164</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>207.654309906727</v>
+        <v>133.5783664086076</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>388.6819640774814</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>388.5863409894994</v>
       </c>
       <c r="D29" t="n">
-        <v>370.920348881532</v>
+        <v>382.9822868175069</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>392.7598095379091</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995113</v>
+        <v>399.3831041354861</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397581</v>
+        <v>387.2039974757329</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>290.362408608196</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>68.05124126573438</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>202.5474154222466</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>237.0528830327218</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905461</v>
+        <v>328.9021753265209</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298451</v>
+        <v>362.4856940658199</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>314.7621516862282</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950528</v>
+        <v>379.4903025310276</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.12209635668106</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>140.4626944399559</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.8647031900005</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.5478108401514</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>24.2899908763684</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>262.5331621889739</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>253.7098838195101</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>258.8419640558512</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>218.5234197285503</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>205.0513378347597</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>388.6819640774814</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>388.5863409894994</v>
       </c>
       <c r="D32" t="n">
-        <v>370.920348881532</v>
+        <v>382.9822868175069</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>211.8307404982868</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995113</v>
+        <v>399.3831041354861</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1420595397581</v>
+        <v>387.2039974757329</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>290.362408608196</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975958</v>
+        <v>68.05124126573438</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>116.491260663477</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>202.5474154222466</v>
       </c>
       <c r="U32" t="n">
-        <v>224.990945096747</v>
+        <v>237.0528830327218</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905461</v>
+        <v>328.9021753265209</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298451</v>
+        <v>362.4856940658199</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>379.1999600623738</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950528</v>
+        <v>379.4903025310276</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.64309870642131</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>140.4626944399559</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>141.8647031900005</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.5478108401515</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>148.1408833733488</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.74558164635391</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>66.98298735099115</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>167.0908466485257</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>219.7162478427017</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>262.5331621889739</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>1.89808539726733</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>258.8419640558512</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>386.4935195611758</v>
+        <v>388.6819640774814</v>
       </c>
       <c r="C35" t="n">
-        <v>386.3978964731938</v>
+        <v>388.5863409894994</v>
       </c>
       <c r="D35" t="n">
-        <v>380.7938423012013</v>
+        <v>382.9822868175069</v>
       </c>
       <c r="E35" t="n">
-        <v>390.5713650216035</v>
+        <v>279.8819817640212</v>
       </c>
       <c r="F35" t="n">
-        <v>397.1946596191806</v>
+        <v>399.3831041354861</v>
       </c>
       <c r="G35" t="n">
-        <v>385.0155529594274</v>
+        <v>387.2039974757329</v>
       </c>
       <c r="H35" t="n">
-        <v>140.0715627968514</v>
+        <v>290.362408608196</v>
       </c>
       <c r="I35" t="n">
-        <v>65.86279674942884</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>114.3028161471714</v>
+        <v>116.491260663477</v>
       </c>
       <c r="T35" t="n">
-        <v>200.358970905941</v>
+        <v>202.5474154222466</v>
       </c>
       <c r="U35" t="n">
-        <v>234.8644385164163</v>
+        <v>237.0528830327218</v>
       </c>
       <c r="V35" t="n">
-        <v>326.7137308102154</v>
+        <v>328.9021753265209</v>
       </c>
       <c r="W35" t="n">
-        <v>360.2972495495144</v>
+        <v>362.4856940658199</v>
       </c>
       <c r="X35" t="n">
-        <v>377.0115155460683</v>
+        <v>379.1999600623738</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.3018580147221</v>
+        <v>379.4903025310276</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.1972610234352</v>
+        <v>168.3857055397408</v>
       </c>
       <c r="C37" t="n">
-        <v>83.17954358695934</v>
+        <v>151.9454349235375</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>140.4626944399559</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.6743768522347</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>64.79454283468561</v>
+        <v>66.98298735099115</v>
       </c>
       <c r="S37" t="n">
-        <v>164.9024021322201</v>
+        <v>12.23741996856654</v>
       </c>
       <c r="T37" t="n">
-        <v>217.5278033263962</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>260.3447176726684</v>
+        <v>262.5331621889739</v>
       </c>
       <c r="V37" t="n">
-        <v>251.5214393032045</v>
+        <v>253.7098838195101</v>
       </c>
       <c r="W37" t="n">
-        <v>256.6535195395456</v>
+        <v>258.8419640558512</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>202.8628933184542</v>
+        <v>205.0513378347597</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>238.3911182661369</v>
+        <v>388.6819640774814</v>
       </c>
       <c r="C38" t="n">
-        <v>386.3978964731938</v>
+        <v>388.5863409894994</v>
       </c>
       <c r="D38" t="n">
-        <v>380.7938423012013</v>
+        <v>382.9822868175069</v>
       </c>
       <c r="E38" t="n">
-        <v>390.5713650216035</v>
+        <v>211.8307404982868</v>
       </c>
       <c r="F38" t="n">
-        <v>397.1946596191806</v>
+        <v>399.3831041354861</v>
       </c>
       <c r="G38" t="n">
-        <v>385.0155529594274</v>
+        <v>387.2039974757329</v>
       </c>
       <c r="H38" t="n">
-        <v>288.1739640918905</v>
+        <v>290.362408608196</v>
       </c>
       <c r="I38" t="n">
-        <v>65.86279674942884</v>
+        <v>68.05124126573438</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>114.3028161471714</v>
+        <v>116.491260663477</v>
       </c>
       <c r="T38" t="n">
-        <v>200.358970905941</v>
+        <v>202.5474154222466</v>
       </c>
       <c r="U38" t="n">
-        <v>234.8644385164163</v>
+        <v>237.0528830327218</v>
       </c>
       <c r="V38" t="n">
-        <v>326.7137308102154</v>
+        <v>328.9021753265209</v>
       </c>
       <c r="W38" t="n">
-        <v>360.2972495495144</v>
+        <v>362.4856940658199</v>
       </c>
       <c r="X38" t="n">
-        <v>377.0115155460683</v>
+        <v>379.1999600623738</v>
       </c>
       <c r="Y38" t="n">
-        <v>377.3018580147221</v>
+        <v>379.4903025310276</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.1972610234352</v>
+        <v>168.3857055397408</v>
       </c>
       <c r="C40" t="n">
-        <v>149.7569904072319</v>
+        <v>151.9454349235375</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>140.4626944399559</v>
       </c>
       <c r="E40" t="n">
-        <v>139.676258673695</v>
+        <v>141.8647031900005</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.5478108401515</v>
       </c>
       <c r="G40" t="n">
-        <v>145.9524388570433</v>
+        <v>148.1408833733488</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>95.55713713004837</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>64.79454283468561</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.0908466485257</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.0215042344594</v>
       </c>
       <c r="U40" t="n">
-        <v>260.3447176726684</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>251.5214393032045</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>177.8483616233114</v>
+        <v>258.8419640558512</v>
       </c>
       <c r="X40" t="n">
-        <v>216.3349752122447</v>
+        <v>218.5234197285503</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>362.5761659788956</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>384.5327953590509</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>87.84159740577672</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>15.66320202560525</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3982,13 +3982,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>374.7552726386488</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>88.08110241150655</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>84.8242557596583</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4191,16 +4191,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>143.7852483179314</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.6022603407614</v>
+        <v>1126.269166274525</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>1120.184979628199</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>1119.761453761664</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>1109.461642318965</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>688.4312302726521</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>279.7029461654843</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1132.44994189861</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.263812524886</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N3" t="n">
-        <v>1785.106747191211</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1785.106747191211</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.0196642740227</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C4" t="n">
-        <v>369.9262918357392</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>369.9262918357392</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>209.0154767040586</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>209.0154767040586</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.772214130362</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1101.974066676486</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V4" t="n">
-        <v>828.0883216160082</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W4" t="n">
-        <v>828.0883216160082</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X4" t="n">
-        <v>765.755362885258</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y4" t="n">
-        <v>541.0196642740227</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>570.6426643811657</v>
+        <v>1681.136832804107</v>
       </c>
       <c r="C5" t="n">
-        <v>564.5584777348398</v>
+        <v>1675.052646157781</v>
       </c>
       <c r="D5" t="n">
-        <v>564.1349518683044</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,22 +4570,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
         <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4600,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>980.8638440456551</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>52.35970185319746</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>508.1659581184962</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>508.1659581184962</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784821</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784821</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>820.5806656045147</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>649.4872931662312</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4758,19 +4758,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1471.359932750111</v>
       </c>
       <c r="V7" t="n">
-        <v>1302.202034381698</v>
+        <v>1471.359932750111</v>
       </c>
       <c r="W7" t="n">
-        <v>1023.132369890572</v>
+        <v>1471.359932750111</v>
       </c>
       <c r="X7" t="n">
-        <v>784.7885077502552</v>
+        <v>1233.016070609794</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.0528091390199</v>
+        <v>1008.280371998559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>716.7512271410574</v>
       </c>
       <c r="C8" t="n">
-        <v>478.2067150519129</v>
+        <v>306.6266364543275</v>
       </c>
       <c r="D8" t="n">
         <v>73.74278514497341</v>
@@ -4810,46 +4810,46 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
         <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P8" t="n">
-        <v>1846.479361096332</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2032.150340931483</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2032.150340931483</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1682.312786267964</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>1298.552485403132</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X8" t="n">
-        <v>1298.552485403132</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.552485403132</v>
+        <v>722.9320027651428</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4886,22 +4886,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184962</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784821</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784821</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1714896368677</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>238.0781171985842</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
         <v>41.76508562960205</v>
@@ -4998,16 +4998,16 @@
         <v>1059.950756782464</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>506.9953472308603</v>
       </c>
       <c r="X10" t="n">
-        <v>821.6068946421474</v>
+        <v>268.6514850905436</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.8711960309121</v>
+        <v>43.91578647930834</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2260.827208721822</v>
+        <v>2425.899443983618</v>
       </c>
       <c r="C11" t="n">
-        <v>1870.526303193344</v>
+        <v>2033.387988438669</v>
       </c>
       <c r="D11" t="n">
-        <v>1485.886058444656</v>
+        <v>1646.537193673511</v>
       </c>
       <c r="E11" t="n">
-        <v>1091.369528119804</v>
+        <v>1249.810113332188</v>
       </c>
       <c r="F11" t="n">
-        <v>839.7611863782456</v>
+        <v>846.3928364276567</v>
       </c>
       <c r="G11" t="n">
-        <v>450.8565874293291</v>
+        <v>455.2776874622698</v>
       </c>
       <c r="H11" t="n">
-        <v>159.7717752152984</v>
+        <v>161.9823252317687</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4546.727494483492</v>
+        <v>4544.516944467022</v>
       </c>
       <c r="T11" t="n">
-        <v>4344.344695588602</v>
+        <v>4339.923595555661</v>
       </c>
       <c r="U11" t="n">
-        <v>4107.107889006364</v>
+        <v>4100.476238956952</v>
       </c>
       <c r="V11" t="n">
-        <v>3777.094019501096</v>
+        <v>3768.251819435214</v>
       </c>
       <c r="W11" t="n">
-        <v>3413.157403794516</v>
+        <v>3584.861289105722</v>
       </c>
       <c r="X11" t="n">
-        <v>3032.337691121719</v>
+        <v>3201.831026416455</v>
       </c>
       <c r="Y11" t="n">
-        <v>2651.224703228061</v>
+        <v>2818.507488506326</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>1402.950983437843</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>2110.173374178493</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>751.5776052366375</v>
+        <v>675.683186417283</v>
       </c>
       <c r="C13" t="n">
-        <v>600.3079179566054</v>
+        <v>522.2029491207804</v>
       </c>
       <c r="D13" t="n">
-        <v>460.6369584377667</v>
+        <v>380.3214395854714</v>
       </c>
       <c r="E13" t="n">
-        <v>319.5498284643375</v>
+        <v>323.9709284972781</v>
       </c>
       <c r="F13" t="n">
-        <v>319.5498284643375</v>
+        <v>323.9709284972781</v>
       </c>
       <c r="G13" t="n">
-        <v>319.5498284643375</v>
+        <v>323.9709284972781</v>
       </c>
       <c r="H13" t="n">
-        <v>189.7660584280454</v>
+        <v>191.9766084445157</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>126.7554409194354</v>
+        <v>124.5888808482928</v>
       </c>
       <c r="K13" t="n">
-        <v>300.7369624652754</v>
+        <v>296.4038423229903</v>
       </c>
       <c r="L13" t="n">
-        <v>580.0632565689381</v>
+        <v>573.5635763555103</v>
       </c>
       <c r="M13" t="n">
-        <v>888.7565068330334</v>
+        <v>880.0902665484631</v>
       </c>
       <c r="N13" t="n">
-        <v>1189.024483050886</v>
+        <v>1178.191682695173</v>
       </c>
       <c r="O13" t="n">
-        <v>1468.014287200962</v>
+        <v>1455.014926774106</v>
       </c>
       <c r="P13" t="n">
-        <v>1693.118921274177</v>
+        <v>1677.953000776178</v>
       </c>
       <c r="Q13" t="n">
-        <v>1778.076144900289</v>
+        <v>1760.743664331148</v>
       </c>
       <c r="R13" t="n">
-        <v>1778.076144900289</v>
+        <v>1760.743664331148</v>
       </c>
       <c r="S13" t="n">
-        <v>1611.508061938451</v>
+        <v>1760.743664331148</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.761665707532</v>
+        <v>1538.808060449632</v>
       </c>
       <c r="U13" t="n">
-        <v>1432.761665707532</v>
+        <v>1273.623048137536</v>
       </c>
       <c r="V13" t="n">
-        <v>1178.699605805305</v>
+        <v>1273.623048137536</v>
       </c>
       <c r="W13" t="n">
-        <v>919.4536264724306</v>
+        <v>1273.623048137536</v>
       </c>
       <c r="X13" t="n">
-        <v>919.4536264724306</v>
+        <v>1052.892321139001</v>
       </c>
       <c r="Y13" t="n">
-        <v>919.4536264724306</v>
+        <v>845.7697576695465</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2260.827208721822</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1870.526303193343</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1485.886058444655</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1091.369528119803</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>690.1628012317417</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>301.2582022828251</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
-        <v>159.7717752152984</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4546.727494483492</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>4344.344695588602</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>4107.107889006364</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
-        <v>3777.094019501095</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3413.157403794515</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>3032.337691121719</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2651.22470322806</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>524.2254458227151</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>524.2254458227151</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>524.2254458227151</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O15" t="n">
-        <v>1228.182536368609</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P15" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.0514733763287</v>
+        <v>493.1501075421604</v>
       </c>
       <c r="C16" t="n">
-        <v>503.785557219183</v>
+        <v>351.8536459385617</v>
       </c>
       <c r="D16" t="n">
-        <v>364.1145977003442</v>
+        <v>351.8536459385617</v>
       </c>
       <c r="E16" t="n">
-        <v>223.0274677269149</v>
+        <v>351.8536459385617</v>
       </c>
       <c r="F16" t="n">
-        <v>223.0274677269149</v>
+        <v>217.0194308838378</v>
       </c>
       <c r="G16" t="n">
-        <v>223.0274677269149</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5436,52 +5436,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>126.7554409194354</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>300.7369624652754</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>580.063256568938</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M16" t="n">
-        <v>888.7565068330332</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
-        <v>1189.024483050885</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1468.014287200962</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
-        <v>1693.118921274176</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q16" t="n">
-        <v>1778.076144900289</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1712.62711173394</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1546.059028772101</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T16" t="n">
-        <v>1326.333974907054</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U16" t="n">
-        <v>1063.35951261143</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>809.2974527092031</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W16" t="n">
-        <v>550.0514733763287</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X16" t="n">
-        <v>550.0514733763287</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.0514733763287</v>
+        <v>493.1501075421604</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2410.425593868326</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>2020.124688339847</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1635.484443591159</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1240.967913266307</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>839.7611863782458</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G17" t="n">
-        <v>450.8565874293292</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
-        <v>159.7717752152984</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4546.727494483492</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4344.344695588602</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4107.107889006364</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V17" t="n">
-        <v>3926.692404647599</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3562.755788941019</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X17" t="n">
-        <v>3181.936076268223</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2800.823088374564</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.033635947823</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>1198.623017005979</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>434.4375921661943</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>434.4375921661943</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>434.4375921661943</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>434.4375921661943</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>126.7554409194354</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>300.7369624652754</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>580.063256568938</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M19" t="n">
-        <v>888.7565068330332</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N19" t="n">
-        <v>1189.024483050885</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O19" t="n">
-        <v>1468.014287200962</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P19" t="n">
-        <v>1693.118921274176</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q19" t="n">
-        <v>1778.076144900289</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1712.62711173394</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1546.059028772101</v>
+        <v>1794.037983938415</v>
       </c>
       <c r="T19" t="n">
-        <v>1326.333974907054</v>
+        <v>1584.286155749802</v>
       </c>
       <c r="U19" t="n">
-        <v>1063.35951261143</v>
+        <v>1331.284919130611</v>
       </c>
       <c r="V19" t="n">
-        <v>809.2974527092031</v>
+        <v>1087.196084904817</v>
       </c>
       <c r="W19" t="n">
-        <v>550.0514733763287</v>
+        <v>837.9233312483766</v>
       </c>
       <c r="X19" t="n">
-        <v>331.5312963942632</v>
+        <v>629.3763799427447</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.6192829412792</v>
+        <v>434.4375921661943</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5791,7 +5791,7 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
         <v>3092.177045180321</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>93.2436976906228</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.7003606771693</v>
+        <v>284.6031562365286</v>
       </c>
       <c r="C22" t="n">
-        <v>126.7003606771693</v>
+        <v>284.6031562365286</v>
       </c>
       <c r="D22" t="n">
-        <v>126.7003606771693</v>
+        <v>284.6031562365286</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>284.6031562365286</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>149.7689411818047</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>149.7689411818047</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>149.7689411818047</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5916,7 +5916,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M22" t="n">
         <v>927.8555407749236</v>
@@ -5946,16 +5946,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V22" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X22" t="n">
-        <v>479.5419440130794</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6022,7 +6022,7 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
         <v>3816.98692220683</v>
@@ -6034,7 +6034,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.623017005979</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N24" t="n">
-        <v>1198.623017005979</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O24" t="n">
-        <v>1198.623017005979</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P24" t="n">
         <v>1760.328909494509</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126.7003606771693</v>
+        <v>496.6452972821142</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>496.6452972821142</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>496.6452972821142</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6153,7 +6153,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M25" t="n">
         <v>927.8555407749236</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1595.849705119449</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1342.848468500258</v>
       </c>
       <c r="V25" t="n">
-        <v>937.361648975152</v>
+        <v>1098.759634274465</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187111</v>
+        <v>849.4868806180243</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130794</v>
+        <v>849.4868806180243</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6031562365289</v>
+        <v>654.5480928414738</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208991</v>
@@ -6214,10 +6214,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6226,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6253,10 +6253,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
         <v>4137.027566035664</v>
@@ -6271,7 +6271,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>1627.989961721529</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>479.5419440130787</v>
+        <v>608.7000952446059</v>
       </c>
       <c r="C28" t="n">
-        <v>338.24548240948</v>
+        <v>608.7000952446059</v>
       </c>
       <c r="D28" t="n">
-        <v>224.3576019876185</v>
+        <v>479.0023614022008</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>347.8884571052051</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6384,22 +6384,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P28" t="n">
         <v>1761.542230672484</v>
@@ -6411,25 +6411,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1509.275905171772</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1256.274668552581</v>
       </c>
       <c r="V28" t="n">
-        <v>937.3616489751514</v>
+        <v>1012.185834326788</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187106</v>
+        <v>1012.185834326788</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130787</v>
+        <v>803.6388830211563</v>
       </c>
       <c r="Y28" t="n">
-        <v>479.5419440130787</v>
+        <v>608.7000952446059</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133291</v>
+        <v>2425.899443983618</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>2033.387988438669</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1646.53719367351</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1249.810113332188</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489446</v>
+        <v>846.3928364276564</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764616</v>
+        <v>455.2776874622697</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>161.9823252317686</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159925</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4457.591535619779</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4218.14417902107</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3885.919759499332</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3519.772593776282</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3201.831026416455</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2818.507488506326</v>
       </c>
     </row>
     <row r="30">
@@ -6548,22 +6548,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126.7003606771693</v>
+        <v>525.440877963459</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>525.440877963459</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>383.55936842815</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>240.2616884382505</v>
       </c>
       <c r="F31" t="n">
         <v>93.2436976906228</v>
@@ -6621,52 +6621,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>124.5888808482929</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>296.4038423229904</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>573.5635763555106</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>880.0902665484634</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1178.191682695173</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1455.014926774107</v>
       </c>
       <c r="P31" t="n">
-        <v>1761.542230672484</v>
+        <v>1677.953000776179</v>
       </c>
       <c r="Q31" t="n">
-        <v>1856.27421278407</v>
+        <v>1760.74366433115</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1760.74366433115</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1736.208320011586</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1736.208320011586</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1471.023307699491</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>1214.750697780794</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>953.294168431449</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>732.5634414329134</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>525.440877963459</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2243.14280859006</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1850.631353045111</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1463.780558279952</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560572</v>
+        <v>1249.810113332188</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489448</v>
+        <v>846.3928364276564</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764616</v>
+        <v>455.2776874622697</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>161.9823252317686</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159924</v>
+        <v>4544.516944467022</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941468</v>
+        <v>4339.923595555661</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4100.476238956952</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206829</v>
+        <v>3768.251819435214</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176683</v>
+        <v>3402.104653712164</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3019.074391022897</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2635.750853112768</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>385.2054556740427</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>385.2054556740427</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>224.3576019876185</v>
+        <v>773.8110446500275</v>
       </c>
       <c r="C34" t="n">
-        <v>224.3576019876185</v>
+        <v>773.8110446500275</v>
       </c>
       <c r="D34" t="n">
-        <v>224.3576019876185</v>
+        <v>631.9295351147185</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>488.631855124819</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>341.6138643771912</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>191.9766084445156</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>191.9766084445156</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>124.5888808482929</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>296.4038423229904</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>573.5635763555106</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>880.0902665484634</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1178.191682695173</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1455.014926774107</v>
       </c>
       <c r="P34" t="n">
-        <v>1761.542230672484</v>
+        <v>1677.953000776179</v>
       </c>
       <c r="Q34" t="n">
-        <v>1856.27421278407</v>
+        <v>1760.74366433115</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1693.08408114833</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1524.305448170022</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1302.369844288505</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1037.18483197641</v>
       </c>
       <c r="V34" t="n">
-        <v>937.361648975152</v>
+        <v>1035.267573999372</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187111</v>
+        <v>773.8110446500275</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130794</v>
+        <v>773.8110446500275</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365289</v>
+        <v>773.8110446500275</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2260.827208721822</v>
+        <v>2243.14280859006</v>
       </c>
       <c r="C35" t="n">
-        <v>1870.526303193343</v>
+        <v>1850.631353045111</v>
       </c>
       <c r="D35" t="n">
-        <v>1485.886058444655</v>
+        <v>1463.780558279952</v>
       </c>
       <c r="E35" t="n">
-        <v>1091.369528119803</v>
+        <v>1181.071485791042</v>
       </c>
       <c r="F35" t="n">
-        <v>690.1628012317417</v>
+        <v>777.6542088865107</v>
       </c>
       <c r="G35" t="n">
-        <v>301.2582022828251</v>
+        <v>386.5390599211239</v>
       </c>
       <c r="H35" t="n">
-        <v>159.7717752152984</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4546.727494483492</v>
+        <v>4544.516944467022</v>
       </c>
       <c r="T35" t="n">
-        <v>4344.344695588602</v>
+        <v>4339.923595555661</v>
       </c>
       <c r="U35" t="n">
-        <v>4107.107889006364</v>
+        <v>4100.476238956952</v>
       </c>
       <c r="V35" t="n">
-        <v>3777.094019501095</v>
+        <v>3768.251819435214</v>
       </c>
       <c r="W35" t="n">
-        <v>3413.157403794515</v>
+        <v>3402.104653712164</v>
       </c>
       <c r="X35" t="n">
-        <v>3032.337691121719</v>
+        <v>3019.074391022897</v>
       </c>
       <c r="Y35" t="n">
-        <v>2651.22470322806</v>
+        <v>2635.750853112768</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N36" t="n">
-        <v>1548.467481689963</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>1548.467481689963</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
         <v>2110.173374178493</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.2634386875514</v>
+        <v>520.5997645751967</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>367.1195272786941</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>225.2380177433852</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>225.2380177433852</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>225.2380177433852</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>225.2380177433852</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7095,52 +7095,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>126.7554409194354</v>
+        <v>124.5888808482929</v>
       </c>
       <c r="K37" t="n">
-        <v>300.7369624652754</v>
+        <v>296.4038423229904</v>
       </c>
       <c r="L37" t="n">
-        <v>580.063256568938</v>
+        <v>573.5635763555106</v>
       </c>
       <c r="M37" t="n">
-        <v>888.7565068330332</v>
+        <v>880.0902665484634</v>
       </c>
       <c r="N37" t="n">
-        <v>1189.024483050885</v>
+        <v>1178.191682695173</v>
       </c>
       <c r="O37" t="n">
-        <v>1468.014287200962</v>
+        <v>1455.014926774107</v>
       </c>
       <c r="P37" t="n">
-        <v>1693.118921274176</v>
+        <v>1677.953000776179</v>
       </c>
       <c r="Q37" t="n">
-        <v>1778.076144900289</v>
+        <v>1760.74366433115</v>
       </c>
       <c r="R37" t="n">
-        <v>1712.62711173394</v>
+        <v>1693.08408114833</v>
       </c>
       <c r="S37" t="n">
-        <v>1546.059028772101</v>
+        <v>1680.723050877051</v>
       </c>
       <c r="T37" t="n">
-        <v>1326.333974907054</v>
+        <v>1680.723050877051</v>
       </c>
       <c r="U37" t="n">
-        <v>1063.35951261143</v>
+        <v>1415.538038564956</v>
       </c>
       <c r="V37" t="n">
-        <v>809.2974527092031</v>
+        <v>1159.265428646259</v>
       </c>
       <c r="W37" t="n">
-        <v>550.0514733763287</v>
+        <v>897.8088992969144</v>
       </c>
       <c r="X37" t="n">
-        <v>550.0514733763287</v>
+        <v>897.8088992969144</v>
       </c>
       <c r="Y37" t="n">
-        <v>345.1394599233446</v>
+        <v>690.6863358274601</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2410.425593868326</v>
+        <v>2243.14280859006</v>
       </c>
       <c r="C38" t="n">
-        <v>2020.124688339847</v>
+        <v>1850.631353045111</v>
       </c>
       <c r="D38" t="n">
-        <v>1635.484443591159</v>
+        <v>1463.780558279952</v>
       </c>
       <c r="E38" t="n">
-        <v>1240.967913266307</v>
+        <v>1249.810113332188</v>
       </c>
       <c r="F38" t="n">
-        <v>839.7611863782458</v>
+        <v>846.3928364276564</v>
       </c>
       <c r="G38" t="n">
-        <v>450.8565874293292</v>
+        <v>455.2776874622697</v>
       </c>
       <c r="H38" t="n">
-        <v>159.7717752152984</v>
+        <v>161.9823252317686</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4546.727494483492</v>
+        <v>4544.516944467022</v>
       </c>
       <c r="T38" t="n">
-        <v>4344.344695588602</v>
+        <v>4339.923595555661</v>
       </c>
       <c r="U38" t="n">
-        <v>4107.107889006364</v>
+        <v>4100.476238956952</v>
       </c>
       <c r="V38" t="n">
-        <v>3777.094019501095</v>
+        <v>3768.251819435214</v>
       </c>
       <c r="W38" t="n">
-        <v>3413.157403794515</v>
+        <v>3402.104653712164</v>
       </c>
       <c r="X38" t="n">
-        <v>3032.337691121719</v>
+        <v>3019.074391022897</v>
       </c>
       <c r="Y38" t="n">
-        <v>2651.22470322806</v>
+        <v>2635.750853112768</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3513.658321228563</v>
+        <v>828.5583711926372</v>
       </c>
       <c r="C40" t="n">
-        <v>3362.388633948531</v>
+        <v>675.0781338961347</v>
       </c>
       <c r="D40" t="n">
-        <v>3362.388633948531</v>
+        <v>533.1966243608257</v>
       </c>
       <c r="E40" t="n">
-        <v>3221.301503975101</v>
+        <v>389.8989443709262</v>
       </c>
       <c r="F40" t="n">
-        <v>3221.301503975101</v>
+        <v>242.8809536232984</v>
       </c>
       <c r="G40" t="n">
-        <v>3073.874798058896</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3073.874798058896</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>2977.352437321473</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3010.864180550286</v>
+        <v>124.5888808482929</v>
       </c>
       <c r="K40" t="n">
-        <v>3184.845702096126</v>
+        <v>296.4038423229904</v>
       </c>
       <c r="L40" t="n">
-        <v>3464.171996199789</v>
+        <v>573.5635763555106</v>
       </c>
       <c r="M40" t="n">
-        <v>3772.865246463884</v>
+        <v>880.0902665484634</v>
       </c>
       <c r="N40" t="n">
-        <v>4073.133222681736</v>
+        <v>1178.191682695173</v>
       </c>
       <c r="O40" t="n">
-        <v>4352.123026831812</v>
+        <v>1455.014926774107</v>
       </c>
       <c r="P40" t="n">
-        <v>4577.227660905027</v>
+        <v>1677.953000776179</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.74366433115</v>
       </c>
       <c r="R40" t="n">
-        <v>4596.735851364791</v>
+        <v>1760.74366433115</v>
       </c>
       <c r="S40" t="n">
-        <v>4596.735851364791</v>
+        <v>1591.965031352841</v>
       </c>
       <c r="T40" t="n">
-        <v>4596.735851364791</v>
+        <v>1480.832198792781</v>
       </c>
       <c r="U40" t="n">
-        <v>4333.761389069165</v>
+        <v>1480.832198792781</v>
       </c>
       <c r="V40" t="n">
-        <v>4079.699329166939</v>
+        <v>1480.832198792781</v>
       </c>
       <c r="W40" t="n">
-        <v>3900.054519446422</v>
+        <v>1219.375669443436</v>
       </c>
       <c r="X40" t="n">
-        <v>3681.534342464357</v>
+        <v>998.6449424449006</v>
       </c>
       <c r="Y40" t="n">
-        <v>3681.534342464357</v>
+        <v>998.6449424449006</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E41" t="n">
-        <v>1287.649206862142</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G41" t="n">
         <v>490.5039577458317</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>3276.783860599928</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>4119.760941294495</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>4312.340419847156</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>4312.340419847156</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3542.215701811578</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C43" t="n">
-        <v>3371.122329373294</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D43" t="n">
-        <v>3371.122329373294</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E43" t="n">
-        <v>3371.122329373294</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F43" t="n">
-        <v>3371.122329373294</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4475.79311641105</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>4475.79311641105</v>
+        <v>1420.429410003903</v>
       </c>
       <c r="U43" t="n">
-        <v>4192.994968957174</v>
+        <v>1420.429410003903</v>
       </c>
       <c r="V43" t="n">
-        <v>4192.994968957174</v>
+        <v>1420.429410003903</v>
       </c>
       <c r="W43" t="n">
-        <v>4192.994968957174</v>
+        <v>1141.359745512777</v>
       </c>
       <c r="X43" t="n">
-        <v>3954.651106816857</v>
+        <v>1141.359745512777</v>
       </c>
       <c r="Y43" t="n">
-        <v>3729.915408205622</v>
+        <v>916.6240469015422</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1313.572457336103</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
         <v>899.2322418529996</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>3458.672769375206</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>3458.672769375206</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>4100.47899204261</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.5600775738928</v>
+        <v>589.8790111499956</v>
       </c>
       <c r="C46" t="n">
-        <v>504.4667051356093</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D46" t="n">
         <v>418.7856387117121</v>
@@ -7839,19 +7839,19 @@
         <v>1196.702087168085</v>
       </c>
       <c r="U46" t="n">
-        <v>913.9039397142094</v>
+        <v>1051.464462604518</v>
       </c>
       <c r="V46" t="n">
-        <v>913.9039397142094</v>
+        <v>777.5787175440399</v>
       </c>
       <c r="W46" t="n">
-        <v>913.9039397142094</v>
+        <v>777.5787175440399</v>
       </c>
       <c r="X46" t="n">
-        <v>675.5600775738928</v>
+        <v>777.5787175440399</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.5600775738928</v>
+        <v>777.5787175440399</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
@@ -7996,10 +7996,10 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>594.6194560602019</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8060,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875379</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>330.6111652313504</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,7 +8218,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8227,16 +8227,16 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>296.9001458002834</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>62.07087134908629</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8303,19 +8303,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875383</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8458,13 +8458,13 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
@@ -8473,10 +8473,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>293.2845869185513</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>66.81615635993535</v>
+        <v>173.8482690683349</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
@@ -8552,7 +8552,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8768,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>771.9303349915991</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>296.6891607496966</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>204.0221919942796</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N18" t="n">
-        <v>123.4856974928982</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N21" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>311.5827583176448</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9734,7 +9734,7 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
@@ -9953,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>723.8803540323523</v>
@@ -9965,19 +9965,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>544.8054309767314</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,16 +10205,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>519.1254239367926</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>350.7366494345345</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10445,10 +10445,10 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N36" t="n">
-        <v>855.3505773129942</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>247.7181192045191</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>706.0405928054583</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>148.1024012950381</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>180.929069039623</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>86.0776972126893</v>
       </c>
       <c r="F13" t="n">
-        <v>143.3593663238459</v>
+        <v>145.5478108401515</v>
       </c>
       <c r="G13" t="n">
-        <v>145.9524388570432</v>
+        <v>148.1408833733489</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>64.79454283468557</v>
+        <v>66.98298735099122</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.0908466485257</v>
       </c>
       <c r="T13" t="n">
-        <v>40.56887105778623</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>260.3447176726683</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>253.7098838195101</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>258.8419640558512</v>
       </c>
       <c r="X13" t="n">
-        <v>216.3349752122447</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.8628933184542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>148.102401295039</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.1972610234352</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>103.9537334116577</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>143.3593663238459</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>145.9524388570433</v>
+        <v>13.5409695760912</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>95.55713713004837</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>216.3349752122447</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.8628933184542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>148.1024012950387</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.1554316252854</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>149.7569904072319</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>138.2742499236504</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>139.676258673695</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>143.3593663238459</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>145.9524388570433</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>128.4859323359292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>95.55713713004837</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>148.336091570369</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
         <v>139.8834969875627</v>
@@ -24135,10 +24135,10 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>96.68066889734467</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
@@ -24147,7 +24147,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>29.72365265410907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>106.7614006308816</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>104.8629560313038</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D28" t="n">
-        <v>15.65175488633827</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037916</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>74.07594349811927</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>116.491260663477</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>64.43780837614565</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.3857055397407</v>
       </c>
       <c r="C31" t="n">
-        <v>106.7614006308816</v>
+        <v>151.9454349235374</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>148.1408833733488</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>130.6743768522347</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>97.74558164635391</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.98298735099115</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.8008557721573</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7162478427017</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>180.9290690396222</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.68066889734465</v>
+        <v>168.3857055397408</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>151.9454349235375</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>130.6743768522347</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>251.8117984222428</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>218.5234197285503</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>205.0513378347597</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>112.8778277738878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>148.102401295039</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>68.05124126573438</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>66.5774468202726</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>138.2742499236504</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>139.676258673695</v>
+        <v>141.8647031900005</v>
       </c>
       <c r="F37" t="n">
-        <v>143.3593663238459</v>
+        <v>145.5478108401515</v>
       </c>
       <c r="G37" t="n">
-        <v>145.9524388570433</v>
+        <v>148.1408833733488</v>
       </c>
       <c r="H37" t="n">
-        <v>128.4859323359292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.55713713004837</v>
+        <v>97.74558164635391</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>154.8534266799591</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7162478427017</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>216.3349752122447</v>
+        <v>218.5234197285503</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>148.1024012950389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>180.9290690396222</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>138.2742499236504</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>143.3593663238459</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>128.4859323359292</v>
+        <v>130.6743768522347</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.74558164635391</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.98298735099115</v>
       </c>
       <c r="S40" t="n">
-        <v>164.9024021322201</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.5278033263962</v>
+        <v>109.6947436082423</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>262.5331621889739</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>253.7098838195101</v>
       </c>
       <c r="W40" t="n">
-        <v>78.80515791623421</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.8628933184542</v>
+        <v>205.0513378347597</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>77.73628975793528</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>221.4900496074597</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>308.5558614412304</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>73.07544247066078</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>136.1849176614056</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>537214.4694525885</v>
+        <v>533832.4324156671</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>537214.4694525885</v>
+        <v>552473.0333231004</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>537214.4694525885</v>
+        <v>552473.0333231005</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>552473.0333231007</v>
+        <v>552473.0333231004</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>552473.0333231007</v>
+        <v>533832.4324156672</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552473.0333231005</v>
+        <v>533832.4324156672</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>537214.4694525885</v>
+        <v>533832.4324156672</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>537214.4694525885</v>
+        <v>533832.4324156673</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>570088.3756135995</v>
+      </c>
+      <c r="C2" t="n">
+        <v>570088.3756135995</v>
+      </c>
+      <c r="D2" t="n">
         <v>570088.3756135994</v>
       </c>
-      <c r="C2" t="n">
-        <v>570088.3756135997</v>
-      </c>
-      <c r="D2" t="n">
-        <v>570088.3756135992</v>
-      </c>
       <c r="E2" t="n">
-        <v>537214.4694525885</v>
+        <v>533832.432415667</v>
       </c>
       <c r="F2" t="n">
-        <v>537214.4694525882</v>
+        <v>552473.0333231014</v>
       </c>
       <c r="G2" t="n">
-        <v>537214.4694525884</v>
+        <v>552473.0333231011</v>
       </c>
       <c r="H2" t="n">
-        <v>552473.0333231016</v>
+        <v>552473.0333231015</v>
       </c>
       <c r="I2" t="n">
-        <v>552473.0333231016</v>
+        <v>552473.0333231012</v>
       </c>
       <c r="J2" t="n">
-        <v>552473.033323102</v>
+        <v>552473.0333231012</v>
       </c>
       <c r="K2" t="n">
-        <v>552473.0333231016</v>
+        <v>533832.4324156671</v>
       </c>
       <c r="L2" t="n">
-        <v>552473.0333231016</v>
+        <v>533832.432415667</v>
       </c>
       <c r="M2" t="n">
-        <v>537214.469452588</v>
+        <v>533832.4324156666</v>
       </c>
       <c r="N2" t="n">
-        <v>537214.4694525884</v>
+        <v>533832.4324156671</v>
       </c>
       <c r="O2" t="n">
-        <v>506885.1681864142</v>
+        <v>506885.1681864141</v>
       </c>
       <c r="P2" t="n">
-        <v>506885.1681864143</v>
+        <v>506885.1681864141</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207830.1215447782</v>
+        <v>206079.3659317337</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9649.550348779874</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7898.794735735421</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>152295.1594512299</v>
+        <v>150544.4038381855</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>155118.3712081971</v>
       </c>
       <c r="E4" t="n">
-        <v>20570.54079323697</v>
+        <v>18359.01754560772</v>
       </c>
       <c r="F4" t="n">
-        <v>20570.54079323691</v>
+        <v>30548.15734701354</v>
       </c>
       <c r="G4" t="n">
-        <v>20570.54079323691</v>
+        <v>30548.15734701354</v>
       </c>
       <c r="H4" t="n">
-        <v>30548.15734701357</v>
+        <v>30548.15734701354</v>
       </c>
       <c r="I4" t="n">
-        <v>30548.15734701356</v>
+        <v>30548.15734701354</v>
       </c>
       <c r="J4" t="n">
-        <v>30548.15734701351</v>
+        <v>30548.15734701361</v>
       </c>
       <c r="K4" t="n">
-        <v>30548.15734701357</v>
+        <v>18359.01754560779</v>
       </c>
       <c r="L4" t="n">
-        <v>30548.15734701356</v>
+        <v>18359.01754560778</v>
       </c>
       <c r="M4" t="n">
-        <v>20570.54079323691</v>
+        <v>18359.01754560778</v>
       </c>
       <c r="N4" t="n">
-        <v>20570.54079323691</v>
+        <v>18359.01754560778</v>
       </c>
       <c r="O4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>72515.10205856666</v>
+        <v>72331.12171652536</v>
       </c>
       <c r="F5" t="n">
-        <v>72515.10205856666</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
-        <v>72515.10205856666</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="H5" t="n">
         <v>73345.15677686482</v>
@@ -26493,19 +26493,19 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>72331.12171652536</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>72331.12171652536</v>
       </c>
       <c r="M5" t="n">
-        <v>72515.10205856666</v>
+        <v>72331.12171652536</v>
       </c>
       <c r="N5" t="n">
-        <v>72515.10205856666</v>
+        <v>72331.12171652536</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174645.4294337907</v>
+        <v>174645.4294337908</v>
       </c>
       <c r="C6" t="n">
-        <v>349600.9393269051</v>
+        <v>349600.9393269049</v>
       </c>
       <c r="D6" t="n">
-        <v>349600.9393269046</v>
+        <v>349600.9393269048</v>
       </c>
       <c r="E6" t="n">
-        <v>236298.7050560067</v>
+        <v>236959.3388126633</v>
       </c>
       <c r="F6" t="n">
-        <v>444128.8266007847</v>
+        <v>438879.8393010417</v>
       </c>
       <c r="G6" t="n">
-        <v>444128.8266007848</v>
+        <v>448529.3896498213</v>
       </c>
       <c r="H6" t="n">
-        <v>440680.9244634878</v>
+        <v>448529.3896498217</v>
       </c>
       <c r="I6" t="n">
-        <v>448579.7191992232</v>
+        <v>448529.3896498214</v>
       </c>
       <c r="J6" t="n">
-        <v>296284.5597479938</v>
+        <v>297984.9858116359</v>
       </c>
       <c r="K6" t="n">
-        <v>448579.7191992232</v>
+        <v>443038.704744397</v>
       </c>
       <c r="L6" t="n">
-        <v>448579.7191992232</v>
+        <v>443038.704744397</v>
       </c>
       <c r="M6" t="n">
-        <v>283770.3761001017</v>
+        <v>282680.2542437139</v>
       </c>
       <c r="N6" t="n">
-        <v>444128.8266007848</v>
+        <v>443038.7047443971</v>
       </c>
       <c r="O6" t="n">
-        <v>435281.8300113963</v>
+        <v>435101.249418747</v>
       </c>
       <c r="P6" t="n">
-        <v>435281.8300113964</v>
+        <v>435101.249418747</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="F2" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G2" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="M2" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="N2" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26916,22 +26916,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12.06193793597484</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.873493419669275</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>12.06193793597484</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.873493419669275</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.2752207238901</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27390,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>157.7291755241334</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>141.0768212501789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>174.2507943754708</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>15.1225282051908</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.3625370574403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>181.1641569739996</v>
       </c>
       <c r="V7" t="n">
-        <v>4.874559219806486</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>169.8642778116096</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>164.4415180694767</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.6935154888947</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>122.8515039573905</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -28070,10 +28070,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="C11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="D11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="E11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="F11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="G11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="H11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="I11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="T11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="U11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="V11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="W11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="X11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="C13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="D13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="E13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="F13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="G13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="H13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="I13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="J13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="K13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="L13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="M13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="N13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="O13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="R13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="S13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="T13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="U13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="V13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="W13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="X13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.62544830666877</v>
+        <v>17.43700379036312</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.62544830666872</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036319</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>17.43700379036319</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="C35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="D35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="E35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="F35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="G35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="H35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="I35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="T35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="U35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="V35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="W35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="X35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="C37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="D37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="E37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="F37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="G37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="H37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="I37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="J37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="K37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="L37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="M37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="N37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="O37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="R37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="S37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="T37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="U37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="V37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="W37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="X37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="C38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="D38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="E38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="F38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="G38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="H38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="I38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="T38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="U38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="V38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="W38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="X38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="C40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="D40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="E40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="F40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="G40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="H40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="I40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="J40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="K40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="L40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="M40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="N40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="O40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="R40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="S40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="T40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="U40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="V40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="W40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="X40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.62544830666872</v>
+        <v>17.43700379036319</v>
       </c>
     </row>
     <row r="41">
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>500.9700927793177</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491205</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,7 +34938,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O5" t="n">
-        <v>400.9092955204429</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.70163254908628</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35178,13 +35178,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35193,10 +35193,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.7016325490863</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
@@ -35272,7 +35272,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>714.3660512531817</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.8502456856693</v>
+        <v>31.66180116936365</v>
       </c>
       <c r="K13" t="n">
-        <v>175.7389106523637</v>
+        <v>173.550466136058</v>
       </c>
       <c r="L13" t="n">
-        <v>282.1477718218815</v>
+        <v>279.9593273055758</v>
       </c>
       <c r="M13" t="n">
-        <v>311.8113639031266</v>
+        <v>309.622919386821</v>
       </c>
       <c r="N13" t="n">
-        <v>303.3009860786387</v>
+        <v>301.1125415623331</v>
       </c>
       <c r="O13" t="n">
-        <v>281.807882979875</v>
+        <v>279.6194384635693</v>
       </c>
       <c r="P13" t="n">
-        <v>227.3784182557722</v>
+        <v>225.1899737394665</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.81537740011406</v>
+        <v>83.62693288380841</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35728,28 +35728,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>240.5746369388475</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.85024568566925</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K16" t="n">
-        <v>175.7389106523636</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>282.1477718218814</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>311.8113639031266</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>303.3009860786387</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>281.8078829798749</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
-        <v>227.3784182557721</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.81537740011402</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N18" t="n">
-        <v>70.29230409914821</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.85024568566925</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K19" t="n">
-        <v>175.7389106523636</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>282.1477718218814</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>311.8113639031266</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>303.3009860786387</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>281.8078829798749</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P19" t="n">
-        <v>227.3784182557721</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.81537740011402</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N21" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36299,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36439,13 +36439,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>254.0184745792274</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>667.7658302215033</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>487.0539519767314</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533857</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L28" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N28" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978323</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>31.66180116936372</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>173.5504661360581</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415507</v>
+        <v>279.9593273055759</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>309.622919386821</v>
       </c>
       <c r="N31" t="n">
-        <v>313.174479498308</v>
+        <v>301.1125415623331</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>279.6194384635694</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754414</v>
+        <v>225.1899737394666</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>83.62693288380848</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>294.9108666499191</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>31.66180116936372</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>173.5504661360581</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415507</v>
+        <v>279.9593273055759</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>309.622919386821</v>
       </c>
       <c r="N34" t="n">
-        <v>313.174479498308</v>
+        <v>301.1125415623331</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>279.6194384635694</v>
       </c>
       <c r="P34" t="n">
-        <v>237.2519116754414</v>
+        <v>225.1899737394666</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>83.62693288380848</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N36" t="n">
-        <v>802.1571839192443</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.85024568566925</v>
+        <v>31.66180116936372</v>
       </c>
       <c r="K37" t="n">
-        <v>175.7389106523636</v>
+        <v>173.5504661360581</v>
       </c>
       <c r="L37" t="n">
-        <v>282.1477718218814</v>
+        <v>279.9593273055759</v>
       </c>
       <c r="M37" t="n">
-        <v>311.8113639031266</v>
+        <v>309.622919386821</v>
       </c>
       <c r="N37" t="n">
-        <v>303.3009860786387</v>
+        <v>301.1125415623331</v>
       </c>
       <c r="O37" t="n">
-        <v>281.8078829798749</v>
+        <v>279.6194384635694</v>
       </c>
       <c r="P37" t="n">
-        <v>227.3784182557721</v>
+        <v>225.1899737394666</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.81537740011402</v>
+        <v>83.62693288380848</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.85024568566925</v>
+        <v>31.66180116936372</v>
       </c>
       <c r="K40" t="n">
-        <v>175.7389106523636</v>
+        <v>173.5504661360581</v>
       </c>
       <c r="L40" t="n">
-        <v>282.1477718218814</v>
+        <v>279.9593273055759</v>
       </c>
       <c r="M40" t="n">
-        <v>311.8113639031266</v>
+        <v>309.622919386821</v>
       </c>
       <c r="N40" t="n">
-        <v>303.3009860786387</v>
+        <v>301.1125415623331</v>
       </c>
       <c r="O40" t="n">
-        <v>281.8078829798749</v>
+        <v>279.6194384635694</v>
       </c>
       <c r="P40" t="n">
-        <v>227.3784182557721</v>
+        <v>225.1899737394666</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.81537740011402</v>
+        <v>83.62693288380848</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>194.5247258107691</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>648.2891138054583</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
